--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rocco\Documents\code\task-scheduling\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBBDED6-C26A-432D-AC96-697FFBDF791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888047A2-B08F-43F3-9D9C-D492365C6841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arrival Rate" sheetId="1" r:id="rId1"/>
-    <sheet name="Average Job Length" sheetId="2" r:id="rId2"/>
-    <sheet name="Proportion of Moldable Jobs" sheetId="4" r:id="rId3"/>
+    <sheet name="Arrival Rate" sheetId="2" r:id="rId1"/>
+    <sheet name="Average Job Length" sheetId="1" r:id="rId2"/>
+    <sheet name="Moldable Job Proportion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,30 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
   <si>
     <t>Arrival Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,11 +64,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DQN比其他方法最高低多少</t>
+    <t>Overall Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Overall Cost</t>
+    <t>Average Response Time (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overall Cost (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,7 +84,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Proportion of Moldable Jobs</t>
+    <t>Moldable Job Proportion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,22 +412,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9730145D-7C67-451F-8293-0509F9A45FF0}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -450,7 +436,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -467,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -484,7 +470,7 @@
         <v>0.187285026462436</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -501,7 +487,7 @@
         <v>0.18472498001459201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -518,7 +504,7 @@
         <v>0.18488470474406599</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>25</v>
       </c>
@@ -535,7 +521,7 @@
         <v>0.20639074516606601</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -552,187 +538,450 @@
         <v>0.20378573664105201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" cm="1">
-        <f t="array" ref="B8">MAX((B3:B7-E3:E7)/B3:B7)</f>
-        <v>0.49714081226350781</v>
-      </c>
-      <c r="C8" cm="1">
-        <f t="array" ref="C8">MAX((C3:C7-E3:E7)/C3:C7)</f>
-        <v>0.42418262324961831</v>
-      </c>
-      <c r="D8" cm="1">
-        <f t="array" ref="D8">MAX((D3:D7-E3:E7)/D3:D7)</f>
-        <v>0.38424839841188918</v>
-      </c>
-      <c r="E8" cm="1">
-        <f t="array" ref="E8">MAX((E3:E7-E3:E7)/E3:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>21.077708000000001</v>
+      </c>
+      <c r="C11">
+        <v>23.9845373333333</v>
+      </c>
+      <c r="D11">
+        <v>16.357230666666599</v>
+      </c>
+      <c r="E11">
+        <v>16.201234666666601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>17.5595346666666</v>
+      </c>
+      <c r="C12">
+        <v>18.948769333333299</v>
+      </c>
+      <c r="D12">
+        <v>15.2572973333333</v>
+      </c>
+      <c r="E12">
+        <v>13.7091693333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>14.803667999999901</v>
+      </c>
+      <c r="C13">
+        <v>15.7124213333333</v>
+      </c>
+      <c r="D13">
+        <v>14.208547999999899</v>
+      </c>
+      <c r="E13">
+        <v>12.51984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>13.186802666666599</v>
+      </c>
+      <c r="C14">
+        <v>13.5889426666666</v>
+      </c>
+      <c r="D14">
+        <v>13.049668</v>
+      </c>
+      <c r="E14">
+        <v>11.662792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>11.739380000000001</v>
+      </c>
+      <c r="C15">
+        <v>12.0116866666666</v>
+      </c>
+      <c r="D15">
+        <v>12.017688</v>
+      </c>
+      <c r="E15">
+        <v>10.207145333333299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>21.077708000000001</v>
-      </c>
-      <c r="C13">
-        <v>23.9845373333333</v>
-      </c>
-      <c r="D13">
-        <v>16.357230666666599</v>
-      </c>
-      <c r="E13">
-        <v>16.201234666666601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B19">
+        <f>(B3-E3)/B3*100</f>
+        <v>27.885782514212785</v>
+      </c>
+      <c r="C19">
+        <f>(C3-E3)/C3*100</f>
+        <v>15.933616480169013</v>
+      </c>
+      <c r="D19">
+        <f>(D3-E3)/D3*100</f>
+        <v>38.42483984118892</v>
+      </c>
+      <c r="E19">
+        <f>(E3-E3)/E3*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>17.5595346666666</v>
-      </c>
-      <c r="C14">
-        <v>18.948769333333299</v>
-      </c>
-      <c r="D14">
-        <v>15.2572973333333</v>
-      </c>
-      <c r="E14">
-        <v>13.7091693333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B20">
+        <f>(B4-E4)/B4*100</f>
+        <v>34.7827711518472</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C23" si="0">(C4-E4)/C4*100</f>
+        <v>21.912743190684491</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D23" si="1">(D4-E4)/D4*100</f>
+        <v>36.129868442999239</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E23" si="2">(E4-E4)/E4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>14.803667999999901</v>
-      </c>
-      <c r="C15">
-        <v>15.7124213333333</v>
-      </c>
-      <c r="D15">
-        <v>14.208547999999899</v>
-      </c>
-      <c r="E15">
-        <v>12.51984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B21">
+        <f t="shared" ref="B21:B23" si="3">(B5-E5)/B5*100</f>
+        <v>40.91190031149516</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>26.215962326826446</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>33.345862207707746</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>25</v>
       </c>
-      <c r="B16">
-        <v>13.186802666666599</v>
-      </c>
-      <c r="C16">
-        <v>13.5889426666666</v>
-      </c>
-      <c r="D16">
-        <v>13.049668</v>
-      </c>
-      <c r="E16">
-        <v>11.662792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>42.199169580089944</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>29.347402998218264</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>22.706635833283816</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>30</v>
       </c>
-      <c r="B17">
-        <v>11.739380000000001</v>
-      </c>
-      <c r="C17">
-        <v>12.0116866666666</v>
-      </c>
-      <c r="D17">
-        <v>12.017688</v>
-      </c>
-      <c r="E17">
-        <v>10.207145333333299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" cm="1">
-        <f t="array" ref="B18">MAX((B13:B17-E13:E17)/B13:B17)</f>
-        <v>0.23135690718048663</v>
-      </c>
-      <c r="C18" cm="1">
-        <f t="array" ref="C18">MAX((C13:C17-E13:E17)/C13:C17)</f>
-        <v>0.32451335452068941</v>
-      </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18">MAX((D13:D17-E13:E17)/D13:D17)</f>
-        <v>0.15065648789240496</v>
-      </c>
-      <c r="E18" cm="1">
-        <f t="array" ref="E18">MAX((E13:E17-E13:E17)/E13:E17)</f>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>49.714081226350778</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>42.41826232496183</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>21.364582416333398</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B19:B23)</f>
+        <v>39.098740956799176</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:E24" si="4">AVERAGE(C19:C23)</f>
+        <v>27.165597464172009</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>30.394357748302628</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <f>(B11-E11)/B11*100</f>
+        <v>23.135690718048664</v>
+      </c>
+      <c r="C28">
+        <f>(C11-E11)/C11*100</f>
+        <v>32.451335452068939</v>
+      </c>
+      <c r="D28">
+        <f>(D11-E11)/D11*100</f>
+        <v>0.95368221662297004</v>
+      </c>
+      <c r="E28">
+        <f>(E11-E11)/E11*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B32" si="5">(B12-E12)/B12*100</f>
+        <v>21.927490713307332</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C32" si="6">(C12-E12)/C12*100</f>
+        <v>27.65139998185991</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D32" si="7">(D12-E12)/D12*100</f>
+        <v>10.146803632237903</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E32" si="8">(E12-E12)/E12*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>15.427446765220049</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>20.31883734278663</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>11.885155330438485</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>11.557090108878105</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>14.174396889549099</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>10.62767267335844</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>13.052091904910663</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>15.023213503737562</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>15.065648789240496</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B28:B32)</f>
+        <v>17.019962042072965</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:E33" si="9">AVERAGE(C28:C32)</f>
+        <v>21.92383663400043</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>9.7357925283796583</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD82CAA-3F78-43FD-96F0-F505674C4C7E}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -741,9 +990,9 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -758,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -775,7 +1024,7 @@
         <v>9.0731323640074496E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.15</v>
       </c>
@@ -792,7 +1041,7 @@
         <v>0.14133031093942999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -809,7 +1058,7 @@
         <v>0.18488470474406599</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -826,7 +1075,7 @@
         <v>0.281470405106792</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.3</v>
       </c>
@@ -843,187 +1092,450 @@
         <v>0.32174975856295601</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" cm="1">
-        <f t="array" ref="B8">MAX((B3:B7-E3:E7)/B3:B7)</f>
-        <v>0.46513776820238545</v>
-      </c>
-      <c r="C8" cm="1">
-        <f t="array" ref="C8">MAX((C3:C7-E3:E7)/C3:C7)</f>
-        <v>0.41724980457355976</v>
-      </c>
-      <c r="D8" cm="1">
-        <f t="array" ref="D8">MAX((D3:D7-E3:E7)/D3:D7)</f>
-        <v>0.40602150983079466</v>
-      </c>
-      <c r="E8" cm="1">
-        <f t="array" ref="E8">MAX((E3:E7-E3:E7)/E3:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>14.141828</v>
+      </c>
+      <c r="C11">
+        <v>15.023621333333301</v>
+      </c>
+      <c r="D11">
+        <v>10.5279639999999</v>
+      </c>
+      <c r="E11">
+        <v>8.1086013333333309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.15</v>
+      </c>
+      <c r="B12">
+        <v>14.343634666666601</v>
+      </c>
+      <c r="C12">
+        <v>15.280944</v>
+      </c>
+      <c r="D12">
+        <v>12.599793333333301</v>
+      </c>
+      <c r="E12">
+        <v>10.916973333333299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.2</v>
+      </c>
+      <c r="B13">
+        <v>14.803667999999901</v>
+      </c>
+      <c r="C13">
+        <v>15.7124213333333</v>
+      </c>
+      <c r="D13">
+        <v>14.208547999999899</v>
+      </c>
+      <c r="E13">
+        <v>12.51984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.25</v>
+      </c>
+      <c r="B14">
+        <v>15.778263999999901</v>
+      </c>
+      <c r="C14">
+        <v>16.253830666666602</v>
+      </c>
+      <c r="D14">
+        <v>15.7187706666666</v>
+      </c>
+      <c r="E14">
+        <v>13.540614666666601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.3</v>
+      </c>
+      <c r="B15">
+        <v>16.4707893333333</v>
+      </c>
+      <c r="C15">
+        <v>17.0946826666666</v>
+      </c>
+      <c r="D15">
+        <v>16.868055999999999</v>
+      </c>
+      <c r="E15">
+        <v>15.29702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.1</v>
+      </c>
+      <c r="B19">
+        <f>(B3-E3)/B3*100</f>
+        <v>31.838658887088421</v>
+      </c>
+      <c r="C19">
+        <f>(C3-E3)/C3*100</f>
+        <v>20.132811806434297</v>
+      </c>
+      <c r="D19">
+        <f>(D3-E3)/D3*100</f>
+        <v>40.602150983079468</v>
+      </c>
+      <c r="E19">
+        <f>(E3-E3)/E3*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.15</v>
+      </c>
+      <c r="B20">
+        <f>(B4-E4)/B4*100</f>
+        <v>32.970473829071956</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C23" si="0">(C4-E4)/C4*100</f>
+        <v>20.076701976592709</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D23" si="1">(D4-E4)/D4*100</f>
+        <v>34.918894482955103</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E23" si="2">(E4-E4)/E4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B20:B23" si="3">(B5-E5)/B5*100</f>
+        <v>40.91190031149516</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>26.215962326826446</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>33.345862207707746</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.25</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>36.354500447816221</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>22.025102376612857</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>15.562190200244075</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.3</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>46.513776820238547</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>41.724980457355976</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>17.373972354852572</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B24">
+        <f>AVERAGE(B19:B23)</f>
+        <v>37.717862059142064</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:E24" si="4">AVERAGE(C19:C23)</f>
+        <v>26.035111788764453</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>28.36061404576779</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D27" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>0.1</v>
       </c>
-      <c r="B13">
-        <v>14.141828</v>
-      </c>
-      <c r="C13">
-        <v>15.023621333333301</v>
-      </c>
-      <c r="D13">
-        <v>10.5279639999999</v>
-      </c>
-      <c r="E13">
-        <v>8.1086013333333309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B28">
+        <f>(B11-E11)/B11*100</f>
+        <v>42.662282886389718</v>
+      </c>
+      <c r="C28">
+        <f>(C11-E11)/C11*100</f>
+        <v>46.027651034158019</v>
+      </c>
+      <c r="D28">
+        <f>(D11-E11)/D11*100</f>
+        <v>22.980347070588309</v>
+      </c>
+      <c r="E28">
+        <f>(E11-E11)/E11*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>0.15</v>
       </c>
-      <c r="B14">
-        <v>14.343634666666601</v>
-      </c>
-      <c r="C14">
-        <v>15.280944</v>
-      </c>
-      <c r="D14">
-        <v>12.599793333333301</v>
-      </c>
-      <c r="E14">
-        <v>10.916973333333299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B29">
+        <f t="shared" ref="B29:B32" si="5">(B12-E12)/B12*100</f>
+        <v>23.889770012733063</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C32" si="6">(C12-E12)/C12*100</f>
+        <v>28.558253120139049</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D32" si="7">(D12-E12)/D12*100</f>
+        <v>13.355933351287819</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E32" si="8">(E12-E12)/E12*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.2</v>
       </c>
-      <c r="B15">
-        <v>14.803667999999901</v>
-      </c>
-      <c r="C15">
-        <v>15.7124213333333</v>
-      </c>
-      <c r="D15">
-        <v>14.208547999999899</v>
-      </c>
-      <c r="E15">
-        <v>12.51984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>15.427446765220049</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>20.31883734278663</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>11.885155330438485</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>0.25</v>
       </c>
-      <c r="B16">
-        <v>15.778263999999901</v>
-      </c>
-      <c r="C16">
-        <v>16.253830666666602</v>
-      </c>
-      <c r="D16">
-        <v>15.7187706666666</v>
-      </c>
-      <c r="E16">
-        <v>13.540614666666601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>14.181847466446968</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>16.692778801764383</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>13.857037844689859</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>0.3</v>
       </c>
-      <c r="B17">
-        <v>16.4707893333333</v>
-      </c>
-      <c r="C17">
-        <v>17.0946826666666</v>
-      </c>
-      <c r="D17">
-        <v>16.868055999999999</v>
-      </c>
-      <c r="E17">
-        <v>15.29702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" cm="1">
-        <f t="array" ref="B18">MAX((B13:B17-E13:E17)/B13:B17)</f>
-        <v>0.42662282886389719</v>
-      </c>
-      <c r="C18" cm="1">
-        <f t="array" ref="C18">MAX((C13:C17-E13:E17)/C13:C17)</f>
-        <v>0.46027651034158018</v>
-      </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18">MAX((D13:D17-E13:E17)/D13:D17)</f>
-        <v>0.22980347070588308</v>
-      </c>
-      <c r="E18" cm="1">
-        <f t="array" ref="E18">MAX((E13:E17-E13:E17)/E13:E17)</f>
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>7.126369657086479</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>10.515917152249411</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>9.3136755059385603</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B28:B32)</f>
+        <v>20.657543357575257</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:E33" si="9">AVERAGE(C28:C32)</f>
+        <v>24.422687490219499</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>14.278429820588608</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147E5386-6753-4465-9AF3-820EF51E897C}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ED4064-44B9-4A77-AD59-074546BBB604}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1032,9 +1544,9 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1049,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -1066,7 +1578,7 @@
         <v>0.227885080823307</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -1083,7 +1595,7 @@
         <v>0.20249209331556201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -1100,7 +1612,7 @@
         <v>0.18488470474406599</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -1117,7 +1629,7 @@
         <v>0.17628642597681701</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -1134,166 +1646,429 @@
         <v>0.24470080545346801</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" cm="1">
-        <f t="array" ref="B8">MAX((B3:B7-E3:E7)/B3:B7)</f>
-        <v>0.46834388535866817</v>
-      </c>
-      <c r="C8" cm="1">
-        <f t="array" ref="C8">MAX((C3:C7-E3:E7)/C3:C7)</f>
-        <v>0.35081510920479841</v>
-      </c>
-      <c r="D8" cm="1">
-        <f t="array" ref="D8">MAX((D3:D7-E3:E7)/D3:D7)</f>
-        <v>0.38525070723791943</v>
-      </c>
-      <c r="E8" cm="1">
-        <f t="array" ref="E8">MAX((E3:E7-E3:E7)/E3:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>15.075345333333299</v>
+      </c>
+      <c r="C11">
+        <v>14.561164</v>
+      </c>
+      <c r="D11">
+        <v>14.8270586666666</v>
+      </c>
+      <c r="E11">
+        <v>13.616592000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.3</v>
+      </c>
+      <c r="B12">
+        <v>14.8673666666666</v>
+      </c>
+      <c r="C12">
+        <v>15.009563999999999</v>
+      </c>
+      <c r="D12">
+        <v>14.6377959999999</v>
+      </c>
+      <c r="E12">
+        <v>13.099378666666601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>14.803667999999901</v>
+      </c>
+      <c r="C13">
+        <v>15.7124213333333</v>
+      </c>
+      <c r="D13">
+        <v>14.208547999999899</v>
+      </c>
+      <c r="E13">
+        <v>12.51984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.7</v>
+      </c>
+      <c r="B14">
+        <v>14.68812</v>
+      </c>
+      <c r="C14">
+        <v>16.375639999999901</v>
+      </c>
+      <c r="D14">
+        <v>13.3760226666666</v>
+      </c>
+      <c r="E14">
+        <v>11.243950666666599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.9</v>
+      </c>
+      <c r="B15">
+        <v>14.67484</v>
+      </c>
+      <c r="C15">
+        <v>16.628841333333298</v>
+      </c>
+      <c r="D15">
+        <v>12.6173653333333</v>
+      </c>
+      <c r="E15">
+        <v>11.377046666666599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.1</v>
+      </c>
+      <c r="B19">
+        <f>(B3-E3)/B3*100</f>
+        <v>30.907866151309417</v>
+      </c>
+      <c r="C19">
+        <f>(C3-E3)/C3*100</f>
+        <v>11.457496961885647</v>
+      </c>
+      <c r="D19">
+        <f>(D3-E3)/D3*100</f>
+        <v>-0.90382520566647806</v>
+      </c>
+      <c r="E19">
+        <f>(E3-E3)/E3*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.3</v>
+      </c>
+      <c r="B20">
+        <f>(B4-E4)/B4*100</f>
+        <v>34.030854810157571</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C23" si="0">(C4-E4)/C4*100</f>
+        <v>18.761154360852107</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D23" si="1">(D4-E4)/D4*100</f>
+        <v>22.117703026883014</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E23" si="2">(E4-E4)/E4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.5</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:B23" si="3">(B5-E5)/B5*100</f>
+        <v>40.91190031149516</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>26.215962326826446</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>33.345862207707746</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.7</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>46.834388535866815</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>35.081510920479843</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>38.525070723791941</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>36.844096018717572</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>13.803707031101331</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>16.723108796519291</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B19:B23)</f>
+        <v>37.905821165509309</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:E24" si="4">AVERAGE(C19:C23)</f>
+        <v>21.063966320229074</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>21.961583909847104</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D27" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>0.1</v>
       </c>
-      <c r="B13">
-        <v>15.075345333333299</v>
-      </c>
-      <c r="C13">
-        <v>14.561164</v>
-      </c>
-      <c r="D13">
-        <v>14.8270586666666</v>
-      </c>
-      <c r="E13">
-        <v>13.616592000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B28">
+        <f>(B11-E11)/B11*100</f>
+        <v>9.6764173627772845</v>
+      </c>
+      <c r="C28">
+        <f>(C11-E11)/C11*100</f>
+        <v>6.4869264572529994</v>
+      </c>
+      <c r="D28">
+        <f>(D11-E11)/D11*100</f>
+        <v>8.1639028608412136</v>
+      </c>
+      <c r="E28">
+        <f>(E11-E11)/E11*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>0.3</v>
       </c>
-      <c r="B14">
-        <v>14.8673666666666</v>
-      </c>
-      <c r="C14">
-        <v>15.009563999999999</v>
-      </c>
-      <c r="D14">
-        <v>14.6377959999999</v>
-      </c>
-      <c r="E14">
-        <v>13.099378666666601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B29">
+        <f t="shared" ref="B29:B32" si="5">(B12-E12)/B12*100</f>
+        <v>11.891736039334518</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C32" si="6">(C12-E12)/C12*100</f>
+        <v>12.726454501499168</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D32" si="7">(D12-E12)/D12*100</f>
+        <v>10.509897346112147</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E32" si="8">(E12-E12)/E12*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.5</v>
       </c>
-      <c r="B15">
-        <v>14.803667999999901</v>
-      </c>
-      <c r="C15">
-        <v>15.7124213333333</v>
-      </c>
-      <c r="D15">
-        <v>14.208547999999899</v>
-      </c>
-      <c r="E15">
-        <v>12.51984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>15.427446765220049</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>20.31883734278663</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>11.885155330438485</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>0.7</v>
       </c>
-      <c r="B16">
-        <v>14.68812</v>
-      </c>
-      <c r="C16">
-        <v>16.375639999999901</v>
-      </c>
-      <c r="D16">
-        <v>13.3760226666666</v>
-      </c>
-      <c r="E16">
-        <v>11.243950666666599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>23.4486737127243</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>31.337336026764955</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>15.939506482096357</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>0.9</v>
       </c>
-      <c r="B17">
-        <v>14.67484</v>
-      </c>
-      <c r="C17">
-        <v>16.628841333333298</v>
-      </c>
-      <c r="D17">
-        <v>12.6173653333333</v>
-      </c>
-      <c r="E17">
-        <v>11.377046666666599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" cm="1">
-        <f t="array" ref="B18">MAX((B13:B17-E13:E17)/B13:B17)</f>
-        <v>0.23448673712724299</v>
-      </c>
-      <c r="C18" cm="1">
-        <f t="array" ref="C18">MAX((C13:C17-E13:E17)/C13:C17)</f>
-        <v>0.31582444990555225</v>
-      </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18">MAX((D13:D17-E13:E17)/D13:D17)</f>
-        <v>0.15939506482096358</v>
-      </c>
-      <c r="E18" cm="1">
-        <f t="array" ref="E18">MAX((E13:E17-E13:E17)/E13:E17)</f>
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>22.47243127239139</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>31.582444990555224</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>9.8302508796345442</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B28:B32)</f>
+        <v>16.58334103048951</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:E33" si="9">AVERAGE(C28:C32)</f>
+        <v>20.490399863771795</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>11.265742579824551</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>